--- a/NL1C/TimeSheet/a1903146_Silin_Ren/MCI-Timesheet Week4.xlsx
+++ b/NL1C/TimeSheet/a1903146_Silin_Ren/MCI-Timesheet Week4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Doria/Documents/2025 Semester 1/MCI Project/Timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45868309-DD1E-564A-BAEF-E5BC3E8062BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F2A060-2552-C944-8F88-8AEEE77964FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="700" windowWidth="22000" windowHeight="15660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,36 +500,39 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,9 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,8 +887,8 @@
   </sheetPr>
   <dimension ref="A2:AW21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,16 +903,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -964,10 +964,10 @@
       </c>
     </row>
     <row r="6" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="22">
         <v>45740</v>
       </c>
       <c r="C6" s="11">
@@ -1031,8 +1031,8 @@
       <c r="AW6" s="9"/>
     </row>
     <row r="7" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -1094,8 +1094,8 @@
       <c r="AW7" s="9"/>
     </row>
     <row r="8" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="11">
         <v>0.79166666666666663</v>
       </c>
@@ -1157,10 +1157,10 @@
       <c r="AW8" s="9"/>
     </row>
     <row r="9" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="22">
         <v>45741</v>
       </c>
       <c r="C9" s="12">
@@ -1224,8 +1224,8 @@
       <c r="AW9" s="9"/>
     </row>
     <row r="10" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="12">
         <v>0.58333333333333337</v>
       </c>
@@ -1287,10 +1287,10 @@
       <c r="AW10" s="9"/>
     </row>
     <row r="11" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="28">
         <v>45742</v>
       </c>
       <c r="C11" s="11">
@@ -1354,9 +1354,9 @@
       <c r="AW11" s="9"/>
     </row>
     <row r="12" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="26">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="17">
         <v>0.58333333333333337</v>
       </c>
       <c r="D12" s="11">
@@ -1417,29 +1417,29 @@
       <c r="AW12" s="9"/>
     </row>
     <row r="13" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="22">
         <v>45743</v>
       </c>
       <c r="C13" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D13" s="12">
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="E13" s="8">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1484,25 +1484,25 @@
       <c r="AW13" s="9"/>
     </row>
     <row r="14" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="12">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="D14" s="12">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1546,26 +1546,26 @@
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
     </row>
-    <row r="15" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="12">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="D15" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1610,25 +1610,29 @@
       <c r="AW15" s="9"/>
     </row>
     <row r="16" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="12">
-        <v>0.6875</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.77083333333333337</v>
+      <c r="A16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22">
+        <v>45744</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.45833333333333331</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1672,30 +1676,26 @@
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
     </row>
-    <row r="17" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20">
-        <v>45744</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D17" s="11">
+    <row r="17" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E17" s="8">
         <v>0.5</v>
       </c>
-      <c r="E17" s="8">
-        <v>3</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1740,8 +1740,8 @@
       <c r="AW17" s="9"/>
     </row>
     <row r="18" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -1803,8 +1803,8 @@
       <c r="AW18" s="9"/>
     </row>
     <row r="19" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="11">
         <v>0.66666666666666663</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="G19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="18" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="9"/>
@@ -1866,8 +1866,8 @@
       <c r="AW19" s="9"/>
     </row>
     <row r="20" spans="1:49" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11">
         <v>0.79166666666666663</v>
       </c>
@@ -1934,26 +1934,26 @@
       </c>
       <c r="E21" s="7">
         <f>SUM(E6:E20)</f>
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="D6:D20 C6:C11 C13:C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:C11 D6:D12 C13:D15 C16:D20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
